--- a/tomorrow.xlsx
+++ b/tomorrow.xlsx
@@ -576,14 +576,14 @@
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
+          <t>01/19成交量(張)</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
           <t>01/18成交量(張)</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>01/17成交量(張)</t>
-        </is>
-      </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>強勢股</t>
@@ -591,7 +591,7 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>類型_2022-01-18</t>
+          <t>類型_2022-01-19</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
@@ -689,13 +689,13 @@
         <v>15.5</v>
       </c>
       <c r="L2" t="n">
-        <v>86.7</v>
+        <v>88.7</v>
       </c>
       <c r="M2" t="n">
-        <v>86.7</v>
+        <v>88.7</v>
       </c>
       <c r="N2" t="n">
-        <v>86.7</v>
+        <v>88.7</v>
       </c>
       <c r="O2" t="n">
         <v>86.7</v>
@@ -731,25 +731,25 @@
         <v>38.65</v>
       </c>
       <c r="Z2" t="n">
-        <v>30.9</v>
+        <v>19.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>24.6</v>
+        <v>18.6</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.199999999999999</v>
+        <v>26</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.140000000000001</v>
+        <v>26.4</v>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
+          <t>49,471</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
           <t>107,651</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>59,931</t>
         </is>
       </c>
       <c r="AF2" t="n">
@@ -778,10 +778,10 @@
         </is>
       </c>
       <c r="AO2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="b">
         <v>0</v>
@@ -871,25 +871,25 @@
         <v>40.05</v>
       </c>
       <c r="Z3" t="n">
-        <v>3.43</v>
+        <v>0.53</v>
       </c>
       <c r="AA3" t="n">
-        <v>4.02</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.81</v>
+        <v>0.49</v>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
+          <t>7,328</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
           <t>10,754</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>4,489</t>
         </is>
       </c>
       <c r="AF3" t="n">
@@ -916,7 +916,7 @@
         <v>6209</v>
       </c>
       <c r="AM3" t="n">
-        <v>1066</v>
+        <v>654</v>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
@@ -1017,25 +1017,25 @@
         <v>15.3</v>
       </c>
       <c r="Z4" t="n">
-        <v>-1.59</v>
+        <v>1.53</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.99</v>
+        <v>0.41</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.75</v>
+        <v>-1.01</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.58</v>
+        <v>-3.08</v>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
+          <t>25,397</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
           <t>25,882</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>5,642</t>
         </is>
       </c>
       <c r="AF4" t="n">

--- a/tomorrow.xlsx
+++ b/tomorrow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,14 +576,14 @@
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
+          <t>01/20成交量(張)</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
           <t>01/19成交量(張)</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>01/18成交量(張)</t>
-        </is>
-      </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>強勢股</t>
@@ -591,7 +591,7 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>類型_2022-01-19</t>
+          <t>類型_2022-01-20</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
@@ -652,117 +652,123 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2368</t>
+          <t>2323</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金像電</t>
+          <t>中環</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>86.5</v>
+        <v>12.8</v>
       </c>
       <c r="E2" t="n">
-        <v>5.62</v>
+        <v>5.79</v>
       </c>
       <c r="F2" t="n">
-        <v>17.8</v>
+        <v>4.92</v>
       </c>
       <c r="G2" t="n">
-        <v>18.5</v>
+        <v>8.02</v>
       </c>
       <c r="H2" t="n">
-        <v>8.4</v>
+        <v>-2.66</v>
       </c>
       <c r="I2" t="n">
-        <v>20.5</v>
+        <v>42.9</v>
       </c>
       <c r="J2" t="n">
-        <v>32.7</v>
+        <v>47</v>
       </c>
       <c r="K2" t="n">
-        <v>15.5</v>
+        <v>30.9</v>
       </c>
       <c r="L2" t="n">
-        <v>88.7</v>
+        <v>13.3</v>
       </c>
       <c r="M2" t="n">
-        <v>88.7</v>
+        <v>13.3</v>
       </c>
       <c r="N2" t="n">
-        <v>88.7</v>
+        <v>13.45</v>
       </c>
       <c r="O2" t="n">
-        <v>86.7</v>
+        <v>13.8</v>
       </c>
       <c r="P2" t="n">
-        <v>86.7</v>
+        <v>13.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>86.7</v>
+        <v>13.8</v>
       </c>
       <c r="R2" t="n">
-        <v>86.7</v>
+        <v>13.8</v>
       </c>
       <c r="S2" t="n">
-        <v>71</v>
+        <v>11.8</v>
       </c>
       <c r="T2" t="n">
-        <v>71</v>
+        <v>11.35</v>
       </c>
       <c r="U2" t="n">
-        <v>71</v>
+        <v>11.35</v>
       </c>
       <c r="V2" t="n">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="W2" t="n">
-        <v>64.2</v>
+        <v>8.56</v>
       </c>
       <c r="X2" t="n">
-        <v>56.5</v>
+        <v>8.02</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.65</v>
+        <v>7.99</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.3</v>
+        <v>-2.24</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.6</v>
+        <v>-0.82</v>
       </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>-0.76</v>
       </c>
       <c r="AC2" t="n">
-        <v>26.4</v>
+        <v>-2.18</v>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>49,471</t>
+          <t>188,786</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>107,651</t>
+          <t>20,638</t>
         </is>
       </c>
       <c r="AF2" t="n">
         <v>1</v>
       </c>
-      <c r="AG2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>2368金像電</t>
-        </is>
-      </c>
-      <c r="AI2" t="n">
-        <v>2</v>
+          <t>2323中環</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -792,142 +798,142 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3036</t>
+          <t>2359</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>文曄</t>
+          <t>所羅門</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>90.2</v>
+        <v>25.95</v>
       </c>
       <c r="E3" t="n">
-        <v>5.74</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>6.75</v>
+        <v>3.8</v>
       </c>
       <c r="G3" t="n">
-        <v>7.38</v>
+        <v>3.8</v>
       </c>
       <c r="H3" t="n">
-        <v>20.1</v>
+        <v>1.76</v>
       </c>
       <c r="I3" t="n">
-        <v>38.6</v>
+        <v>47.4</v>
       </c>
       <c r="J3" t="n">
-        <v>47.4</v>
+        <v>49.6</v>
       </c>
       <c r="K3" t="n">
-        <v>46.7</v>
+        <v>54.5</v>
       </c>
       <c r="L3" t="n">
-        <v>91.5</v>
+        <v>25.95</v>
       </c>
       <c r="M3" t="n">
-        <v>91.5</v>
+        <v>25.95</v>
       </c>
       <c r="N3" t="n">
-        <v>91.5</v>
+        <v>27</v>
       </c>
       <c r="O3" t="n">
-        <v>91.5</v>
+        <v>28.4</v>
       </c>
       <c r="P3" t="n">
-        <v>91.5</v>
+        <v>28.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>91.5</v>
+        <v>28.4</v>
       </c>
       <c r="R3" t="n">
-        <v>91.5</v>
+        <v>28.4</v>
       </c>
       <c r="S3" t="n">
-        <v>82</v>
+        <v>23.3</v>
       </c>
       <c r="T3" t="n">
-        <v>81.7</v>
+        <v>23.2</v>
       </c>
       <c r="U3" t="n">
-        <v>73.5</v>
+        <v>23.2</v>
       </c>
       <c r="V3" t="n">
-        <v>64.40000000000001</v>
+        <v>17.65</v>
       </c>
       <c r="W3" t="n">
-        <v>61.7</v>
+        <v>17</v>
       </c>
       <c r="X3" t="n">
-        <v>56.8</v>
+        <v>16.7</v>
       </c>
       <c r="Y3" t="n">
-        <v>40.05</v>
+        <v>15.25</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.53</v>
+        <v>-0.24</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.07000000000000001</v>
+        <v>1.73</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.86</v>
+        <v>0.38</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.49</v>
+        <v>-0.41</v>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>7,328</t>
+          <t>13,823</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>10,754</t>
+          <t>2,945</t>
         </is>
       </c>
       <c r="AF3" t="n">
         <v>1</v>
       </c>
-      <c r="AG3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>3036文曄</t>
-        </is>
-      </c>
-      <c r="AI3" t="n">
-        <v>3</v>
+          <t>2359所羅門</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
           <t>both</t>
         </is>
       </c>
-      <c r="AK3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>6209</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>654</v>
-      </c>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>left_only</t>
         </is>
       </c>
       <c r="AO3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ3" t="b">
         <v>0</v>
@@ -938,104 +944,104 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6235</t>
+          <t>2497</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>華孚</t>
+          <t>怡利電</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>35.55</v>
+        <v>80.8</v>
       </c>
       <c r="E4" t="n">
-        <v>5.65</v>
+        <v>6.32</v>
       </c>
       <c r="F4" t="n">
-        <v>4.41</v>
+        <v>7.3</v>
       </c>
       <c r="G4" t="n">
-        <v>9.380000000000001</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>-4.18</v>
+        <v>3.59</v>
       </c>
       <c r="I4" t="n">
-        <v>13</v>
+        <v>-0.37</v>
       </c>
       <c r="J4" t="n">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="K4" t="n">
-        <v>80.5</v>
+        <v>99.3</v>
       </c>
       <c r="L4" t="n">
-        <v>36.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>36.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>38.35</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="O4" t="n">
-        <v>40.1</v>
+        <v>89.7</v>
       </c>
       <c r="P4" t="n">
-        <v>40.1</v>
+        <v>91</v>
       </c>
       <c r="Q4" t="n">
-        <v>40.1</v>
+        <v>91</v>
       </c>
       <c r="R4" t="n">
-        <v>40.1</v>
+        <v>91</v>
       </c>
       <c r="S4" t="n">
-        <v>32.05</v>
+        <v>72.2</v>
       </c>
       <c r="T4" t="n">
-        <v>32.05</v>
+        <v>69.2</v>
       </c>
       <c r="U4" t="n">
-        <v>31.85</v>
+        <v>69.2</v>
       </c>
       <c r="V4" t="n">
-        <v>31.85</v>
+        <v>69.2</v>
       </c>
       <c r="W4" t="n">
-        <v>17.35</v>
+        <v>35.2</v>
       </c>
       <c r="X4" t="n">
-        <v>15.8</v>
+        <v>28.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.3</v>
+        <v>25.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.53</v>
+        <v>-3.01</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.41</v>
+        <v>-1.73</v>
       </c>
       <c r="AB4" t="n">
-        <v>-1.01</v>
+        <v>1.55</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.08</v>
+        <v>-2.1</v>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>25,397</t>
+          <t>24,446</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>25,882</t>
+          <t>3,275</t>
         </is>
       </c>
       <c r="AF4" t="n">
@@ -1044,7 +1050,7 @@
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>6235華孚</t>
+          <t>2497怡利電</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr"/>
@@ -1071,6 +1077,1008 @@
         <v>0</v>
       </c>
       <c r="AR4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3036</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>文曄</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>90</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="H5" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="T5" t="n">
+        <v>82</v>
+      </c>
+      <c r="U5" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="V5" t="n">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="W5" t="n">
+        <v>61.7</v>
+      </c>
+      <c r="X5" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>40.05</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>9,908</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>7,328</t>
+        </is>
+      </c>
+      <c r="AF5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>3036文曄</t>
+        </is>
+      </c>
+      <c r="AI5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AK5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>6209</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1048</v>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AO5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3041</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>揚智</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>40.35</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="J6" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="N6" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="U6" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="V6" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="W6" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="X6" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>-2.18</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>26,263</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>5,711</t>
+        </is>
+      </c>
+      <c r="AF6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>3041揚智</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+      <c r="AO6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3455</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>由田</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>111.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="F7" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="K7" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="L7" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="P7" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>97</v>
+      </c>
+      <c r="T7" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="U7" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="V7" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="W7" t="n">
+        <v>58</v>
+      </c>
+      <c r="X7" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>32,601</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>13,695</t>
+        </is>
+      </c>
+      <c r="AF7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>3455由田</t>
+        </is>
+      </c>
+      <c r="AI7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AK7" t="n">
+        <v>61</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>6263</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>508</v>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AO7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>5011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>久陽</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>39</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="I8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="L8" t="n">
+        <v>39.35</v>
+      </c>
+      <c r="M8" t="n">
+        <v>39.35</v>
+      </c>
+      <c r="N8" t="n">
+        <v>39.35</v>
+      </c>
+      <c r="O8" t="n">
+        <v>39.35</v>
+      </c>
+      <c r="P8" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>44</v>
+      </c>
+      <c r="R8" t="n">
+        <v>44</v>
+      </c>
+      <c r="S8" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="U8" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="V8" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="W8" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="X8" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>6,790</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>1,736</t>
+        </is>
+      </c>
+      <c r="AF8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>5011久陽</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+      <c r="AO8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>6205</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>詮欣</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="G9" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>14</v>
+      </c>
+      <c r="I9" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>136</v>
+      </c>
+      <c r="K9" t="n">
+        <v>147</v>
+      </c>
+      <c r="L9" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="M9" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="N9" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="P9" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="T9" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="U9" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="V9" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="W9" t="n">
+        <v>34.05</v>
+      </c>
+      <c r="X9" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>27.15</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>10,489</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>4,479</t>
+        </is>
+      </c>
+      <c r="AF9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>6205詮欣</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+      <c r="AO9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>6465</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>威潤</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>31.95</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="G10" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="J10" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>35</v>
+      </c>
+      <c r="M10" t="n">
+        <v>35</v>
+      </c>
+      <c r="N10" t="n">
+        <v>35</v>
+      </c>
+      <c r="O10" t="n">
+        <v>35</v>
+      </c>
+      <c r="P10" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>35</v>
+      </c>
+      <c r="R10" t="n">
+        <v>35</v>
+      </c>
+      <c r="S10" t="n">
+        <v>28.65</v>
+      </c>
+      <c r="T10" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="U10" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="W10" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="X10" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>901</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="AF10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>6465威潤</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+      <c r="AO10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>8038</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>長園科</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="F11" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="I11" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>28</v>
+      </c>
+      <c r="L11" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="T11" t="n">
+        <v>39</v>
+      </c>
+      <c r="U11" t="n">
+        <v>39</v>
+      </c>
+      <c r="V11" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="W11" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="X11" t="n">
+        <v>30.45</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-3.22</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-3.47</v>
+      </c>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>4,804</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>980</t>
+        </is>
+      </c>
+      <c r="AF11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>8038長園科</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+      <c r="AO11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="b">
         <v>0</v>
       </c>
     </row>

--- a/tomorrow.xlsx
+++ b/tomorrow.xlsx
@@ -737,10 +737,10 @@
         <v>-0.82</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.76</v>
+        <v>5.39</v>
       </c>
       <c r="AC2" t="n">
-        <v>-2.18</v>
+        <v>4.88</v>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
@@ -883,10 +883,10 @@
         <v>1.73</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.38</v>
+        <v>4.62</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.41</v>
+        <v>4.21</v>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
@@ -1029,10 +1029,10 @@
         <v>-1.73</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.55</v>
+        <v>5.61</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2.1</v>
+        <v>2.5</v>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
         <v>6.26</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.57</v>
+        <v>2.94</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.23</v>
+        <v>3.35</v>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
@@ -1313,10 +1313,10 @@
         <v>1.07</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.23</v>
+        <v>1.11</v>
       </c>
       <c r="AC6" t="n">
-        <v>-1</v>
+        <v>0.57</v>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
@@ -1459,10 +1459,10 @@
         <v>1.45</v>
       </c>
       <c r="AB7" t="n">
-        <v>4.52</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.29</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
@@ -1605,10 +1605,10 @@
         <v>1.18</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.52</v>
+        <v>0.62</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.61</v>
+        <v>0.82</v>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
@@ -1743,10 +1743,10 @@
         <v>3.27</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.79</v>
+        <v>3.57</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.62</v>
+        <v>4.94</v>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
